--- a/vystup.xlsx
+++ b/vystup.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,12 +463,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>TC_VASadd_vasadd_dsl_neco_neco_b2c</t>
+          <t>TC_VASaktivace_b2c_vasaktivace_aktivuj_fwa_bi_s_rentalem</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>VASadd</t>
+          <t>VASaktivace</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -476,7 +476,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Priprav si zakaznika s aktivni sluzbou dle pozadavku</t>
+          <t>U zakaznika jdi na sluzby a zaloz objednavku na aktivaci pevneho internetu z roletky</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -488,12 +488,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>TC_VASadd_vasadd_dsl_neco_neco_b2c</t>
+          <t>TC_VASaktivace_b2c_vasaktivace_aktivuj_fwa_bi_s_rentalem</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>VASadd</t>
+          <t>VASaktivace</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -501,7 +501,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Jdi na detail pozadovane sluzby a klikni na objednat</t>
+          <t xml:space="preserve">Vyber, ze zakaznik nemá pripojku a pokracuj na vyhledani podle adresy  </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -513,12 +513,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>TC_VASadd_vasadd_dsl_neco_neco_b2c</t>
+          <t>TC_VASaktivace_b2c_vasaktivace_aktivuj_fwa_bi_s_rentalem</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>VASadd</t>
+          <t>VASaktivace</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -526,7 +526,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>V katalogu vyhledej pozadovany balicek Security a pridej do kosiku</t>
+          <t xml:space="preserve">Over adresu na webu a zadej RUIAN nebo primo adresu, pokracovat </t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -538,12 +538,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>TC_VASadd_vasadd_dsl_neco_neco_b2c</t>
+          <t>TC_VASaktivace_b2c_vasaktivace_aktivuj_fwa_bi_s_rentalem</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>VASadd</t>
+          <t>VASaktivace</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -551,7 +551,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Proved kontrolu screeny, textu, souhlasu, funkcnost </t>
+          <t>Upresneni instalacni adresy potvrd pokracovat</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -563,12 +563,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>TC_VASadd_vasadd_dsl_neco_neco_b2c</t>
+          <t>TC_VASaktivace_b2c_vasaktivace_aktivuj_fwa_bi_s_rentalem</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>VASadd</t>
+          <t>VASaktivace</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -576,7 +576,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Objednavku odesli do COM</t>
+          <t>Z dostupne nabidky vyber pozadovany tarif, dej pokracovat a na další strane potvrd aktivacni balicek tehoz tarifu</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -588,12 +588,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>TC_VASadd_vasadd_dsl_neco_neco_b2c</t>
+          <t>TC_VASaktivace_b2c_vasaktivace_aktivuj_fwa_bi_s_rentalem</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>VASadd</t>
+          <t>VASaktivace</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -601,7 +601,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Proved kontrolu atributu v COM pod designoss</t>
+          <t>Preskoc vyber TV tarifu</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -613,12 +613,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>TC_VASadd_vasadd_dsl_neco_neco_b2c</t>
+          <t>TC_VASaktivace_b2c_vasaktivace_aktivuj_fwa_bi_s_rentalem</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>VASadd</t>
+          <t>VASaktivace</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -626,7 +626,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Zaloz OT na kontrolu sluzby na OSS PE se zadanymi udaji z COM</t>
+          <t>Na strance "jak zvysit pravdepodobnost realizace" dej pokracovat</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -638,12 +638,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>TC_VASadd_vasadd_dsl_neco_neco_b2c</t>
+          <t>TC_VASaktivace_b2c_vasaktivace_aktivuj_fwa_bi_s_rentalem</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>VASadd</t>
+          <t>VASaktivace</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -651,7 +651,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Proved kontrolu dokoncene objednavky v Siebelu i v COM a aktivniho atributu pod sluzbou</t>
+          <t>Kontakt pro instalaci vypln dle pozadovanych udaju</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -663,12 +663,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>TC_VASadd_vasadd_dsl_neco_neco_b2c</t>
+          <t>TC_VASaktivace_b2c_vasaktivace_aktivuj_fwa_bi_s_rentalem</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>VASadd</t>
+          <t>VASaktivace</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -676,10 +676,360 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Proved kontrolu, jestli se restartovala session/zmenila IP adresa</t>
+          <t>Instalacni otazky vypln dle pozadovanych pokynu</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
+        <is>
+          <t>TODO: doplnit očekávání</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>TC_VASaktivace_b2c_vasaktivace_aktivuj_fwa_bi_s_rentalem</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>VASaktivace</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>10</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Vyber balicek Security dle pozadavku</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>TODO: doplnit očekávání</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>TC_VASaktivace_b2c_vasaktivace_aktivuj_fwa_bi_s_rentalem</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>VASaktivace</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>11</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Vyber pozadovany HW, dej pokracovat a na další strane potvrd vybrany HW</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>TODO: doplnit očekávání</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>TC_VASaktivace_b2c_vasaktivace_aktivuj_fwa_bi_s_rentalem</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>VASaktivace</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>12</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Souhlas s pridanim do magenty a na další strance s vybranym HW</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>TODO: doplnit očekávání</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>TC_VASaktivace_b2c_vasaktivace_aktivuj_fwa_bi_s_rentalem</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>VASaktivace</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>13</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Nech predzaskrtnuty Wi-fi Manager a pokracuj</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>TODO: doplnit očekávání</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>TC_VASaktivace_b2c_vasaktivace_aktivuj_fwa_bi_s_rentalem</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>VASaktivace</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>14</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Zobrazeni kosiku, kontrola pridanych polozek</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>TODO: doplnit očekávání</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>TC_VASaktivace_b2c_vasaktivace_aktivuj_fwa_bi_s_rentalem</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>VASaktivace</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>15</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Kliknout na odeslat objednavku</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>TODO: doplnit očekávání</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>TC_VASaktivace_b2c_vasaktivace_aktivuj_fwa_bi_s_rentalem</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>VASaktivace</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>16</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>U udaju zakaznika dej pokracovat, vyber fakturacni skupinu a potvrd fakturacni udaje</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>TODO: doplnit očekávání</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>TC_VASaktivace_b2c_vasaktivace_aktivuj_fwa_bi_s_rentalem</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>VASaktivace</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>17</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Vyber zpusob doruceni (nech vybrany) a dej pokracovat, u kontroly zakaznika dej pokracovat</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>TODO: doplnit očekávání</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>TC_VASaktivace_b2c_vasaktivace_aktivuj_fwa_bi_s_rentalem</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>VASaktivace</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>18</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>U technickeho setreni dej pokracovat az k souhlasum, které potvrd pokracovat</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>TODO: doplnit očekávání</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>TC_VASaktivace_b2c_vasaktivace_aktivuj_fwa_bi_s_rentalem</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>VASaktivace</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>19</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Vytiskni smlouvy, zkontroluj smlouvy a podepis pozadovanym zpusobem</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>TODO: doplnit očekávání</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>TC_VASaktivace_b2c_vasaktivace_aktivuj_fwa_bi_s_rentalem</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>VASaktivace</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>20</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>U DSL odesli email na dokonceni objednavky od CETIN a nasledne vyskladni v SAP</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>TODO: doplnit očekávání</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>TC_VASaktivace_b2c_vasaktivace_aktivuj_fwa_bi_s_rentalem</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>VASaktivace</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>21</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Zaloz OT na kontrolu sluzby na OSS PE se zadanymi udaji z COM</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>TODO: doplnit očekávání</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>TC_VASaktivace_b2c_vasaktivace_aktivuj_fwa_bi_s_rentalem</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>VASaktivace</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>22</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Proved kontrolu dokoncene objednavky v Siebel a COM a zkontroluj aktivni atribut v designoss</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>TODO: doplnit očekávání</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>TC_VASaktivace_b2c_vasaktivace_aktivuj_fwa_bi_s_rentalem</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>VASaktivace</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>23</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Proved kontrolu notifikaci SMS/Email</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
         <is>
           <t>TODO: doplnit očekávání</t>
         </is>

--- a/vystup.xlsx
+++ b/vystup.xlsx
@@ -463,12 +463,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>TC_VASaktivace_b2c_vasaktivace_aktivuj_fwa_bi_s_rentalem</t>
+          <t>(003)_b2c_dsl_vasaktivate_aktivuj dsl + rental + security na b2c</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>VASaktivace</t>
+          <t>vasaktivate</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -488,12 +488,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>TC_VASaktivace_b2c_vasaktivace_aktivuj_fwa_bi_s_rentalem</t>
+          <t>(003)_b2c_dsl_vasaktivate_aktivuj dsl + rental + security na b2c</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>VASaktivace</t>
+          <t>vasaktivate</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -513,12 +513,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>TC_VASaktivace_b2c_vasaktivace_aktivuj_fwa_bi_s_rentalem</t>
+          <t>(003)_b2c_dsl_vasaktivate_aktivuj dsl + rental + security na b2c</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>VASaktivace</t>
+          <t>vasaktivate</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -538,12 +538,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>TC_VASaktivace_b2c_vasaktivace_aktivuj_fwa_bi_s_rentalem</t>
+          <t>(003)_b2c_dsl_vasaktivate_aktivuj dsl + rental + security na b2c</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>VASaktivace</t>
+          <t>vasaktivate</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -563,12 +563,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>TC_VASaktivace_b2c_vasaktivace_aktivuj_fwa_bi_s_rentalem</t>
+          <t>(003)_b2c_dsl_vasaktivate_aktivuj dsl + rental + security na b2c</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>VASaktivace</t>
+          <t>vasaktivate</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -588,12 +588,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>TC_VASaktivace_b2c_vasaktivace_aktivuj_fwa_bi_s_rentalem</t>
+          <t>(003)_b2c_dsl_vasaktivate_aktivuj dsl + rental + security na b2c</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>VASaktivace</t>
+          <t>vasaktivate</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -613,12 +613,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>TC_VASaktivace_b2c_vasaktivace_aktivuj_fwa_bi_s_rentalem</t>
+          <t>(003)_b2c_dsl_vasaktivate_aktivuj dsl + rental + security na b2c</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>VASaktivace</t>
+          <t>vasaktivate</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -638,12 +638,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>TC_VASaktivace_b2c_vasaktivace_aktivuj_fwa_bi_s_rentalem</t>
+          <t>(003)_b2c_dsl_vasaktivate_aktivuj dsl + rental + security na b2c</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>VASaktivace</t>
+          <t>vasaktivate</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -663,12 +663,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>TC_VASaktivace_b2c_vasaktivace_aktivuj_fwa_bi_s_rentalem</t>
+          <t>(003)_b2c_dsl_vasaktivate_aktivuj dsl + rental + security na b2c</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>VASaktivace</t>
+          <t>vasaktivate</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -688,12 +688,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>TC_VASaktivace_b2c_vasaktivace_aktivuj_fwa_bi_s_rentalem</t>
+          <t>(003)_b2c_dsl_vasaktivate_aktivuj dsl + rental + security na b2c</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>VASaktivace</t>
+          <t>vasaktivate</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -713,12 +713,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>TC_VASaktivace_b2c_vasaktivace_aktivuj_fwa_bi_s_rentalem</t>
+          <t>(003)_b2c_dsl_vasaktivate_aktivuj dsl + rental + security na b2c</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>VASaktivace</t>
+          <t>vasaktivate</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -738,12 +738,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>TC_VASaktivace_b2c_vasaktivace_aktivuj_fwa_bi_s_rentalem</t>
+          <t>(003)_b2c_dsl_vasaktivate_aktivuj dsl + rental + security na b2c</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>VASaktivace</t>
+          <t>vasaktivate</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -763,12 +763,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>TC_VASaktivace_b2c_vasaktivace_aktivuj_fwa_bi_s_rentalem</t>
+          <t>(003)_b2c_dsl_vasaktivate_aktivuj dsl + rental + security na b2c</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>VASaktivace</t>
+          <t>vasaktivate</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -788,12 +788,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>TC_VASaktivace_b2c_vasaktivace_aktivuj_fwa_bi_s_rentalem</t>
+          <t>(003)_b2c_dsl_vasaktivate_aktivuj dsl + rental + security na b2c</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>VASaktivace</t>
+          <t>vasaktivate</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -813,12 +813,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>TC_VASaktivace_b2c_vasaktivace_aktivuj_fwa_bi_s_rentalem</t>
+          <t>(003)_b2c_dsl_vasaktivate_aktivuj dsl + rental + security na b2c</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>VASaktivace</t>
+          <t>vasaktivate</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -838,12 +838,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>TC_VASaktivace_b2c_vasaktivace_aktivuj_fwa_bi_s_rentalem</t>
+          <t>(003)_b2c_dsl_vasaktivate_aktivuj dsl + rental + security na b2c</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>VASaktivace</t>
+          <t>vasaktivate</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -863,12 +863,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>TC_VASaktivace_b2c_vasaktivace_aktivuj_fwa_bi_s_rentalem</t>
+          <t>(003)_b2c_dsl_vasaktivate_aktivuj dsl + rental + security na b2c</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>VASaktivace</t>
+          <t>vasaktivate</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -888,12 +888,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>TC_VASaktivace_b2c_vasaktivace_aktivuj_fwa_bi_s_rentalem</t>
+          <t>(003)_b2c_dsl_vasaktivate_aktivuj dsl + rental + security na b2c</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>VASaktivace</t>
+          <t>vasaktivate</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -913,12 +913,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>TC_VASaktivace_b2c_vasaktivace_aktivuj_fwa_bi_s_rentalem</t>
+          <t>(003)_b2c_dsl_vasaktivate_aktivuj dsl + rental + security na b2c</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>VASaktivace</t>
+          <t>vasaktivate</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -938,12 +938,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>TC_VASaktivace_b2c_vasaktivace_aktivuj_fwa_bi_s_rentalem</t>
+          <t>(003)_b2c_dsl_vasaktivate_aktivuj dsl + rental + security na b2c</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>VASaktivace</t>
+          <t>vasaktivate</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -963,12 +963,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>TC_VASaktivace_b2c_vasaktivace_aktivuj_fwa_bi_s_rentalem</t>
+          <t>(003)_b2c_dsl_vasaktivate_aktivuj dsl + rental + security na b2c</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>VASaktivace</t>
+          <t>vasaktivate</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -988,12 +988,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>TC_VASaktivace_b2c_vasaktivace_aktivuj_fwa_bi_s_rentalem</t>
+          <t>(003)_b2c_dsl_vasaktivate_aktivuj dsl + rental + security na b2c</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>VASaktivace</t>
+          <t>vasaktivate</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -1013,12 +1013,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>TC_VASaktivace_b2c_vasaktivace_aktivuj_fwa_bi_s_rentalem</t>
+          <t>(003)_b2c_dsl_vasaktivate_aktivuj dsl + rental + security na b2c</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>VASaktivace</t>
+          <t>vasaktivate</t>
         </is>
       </c>
       <c r="C24" t="n">
